--- a/biology/Médecine/Follicule_(anatomie_animale)/Follicule_(anatomie_animale).xlsx
+++ b/biology/Médecine/Follicule_(anatomie_animale)/Follicule_(anatomie_animale).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie animale, un follicule est une structure particulière, de forme arrondie, dans un organe ou un tissu.
 </t>
@@ -511,7 +523,9 @@
           <t>Follicule ovarien</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Structure contenant l'ovocyte de premier ordre, élément essentiel à la reproduction. Il est formé de plusieurs cellules folliculaires.
 Il existe différents stades de développement du follicule :
@@ -546,7 +560,9 @@
           <t>Follicule pileux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Follicule de la peau qui assemble des cellules produites dans celui-ci pour former le poil par kératinisation. La glande sébacée débouche dans la partie supérieure du follicule pileux, et permet la lubrification du poil par le sébum. Seules la plante des pieds et la paume des mains en sont dépourvues.
  Portail de la médecine   Portail de l’anatomie                    </t>
